--- a/pred_ohlcv/54/2019-10-20 PST ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-20 PST ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>158077.6069</v>
+        <v>1450588.7498</v>
       </c>
       <c r="G2" t="n">
         <v>81.91000000000001</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>942011.8305</v>
+        <v>158077.6069</v>
       </c>
       <c r="G3" t="n">
         <v>81.91000000000001</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>1429925.6504</v>
+        <v>942011.8305</v>
       </c>
       <c r="G4" t="n">
         <v>81.91000000000001</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1454079.7999</v>
+        <v>1429925.6504</v>
       </c>
       <c r="G5" t="n">
-        <v>81.90666666666667</v>
+        <v>81.91000000000001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -550,12 +570,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>1463741.4597</v>
+        <v>1454079.7999</v>
       </c>
       <c r="G7" t="n">
         <v>81.90666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1449248.97</v>
+        <v>1463741.4597</v>
       </c>
       <c r="G8" t="n">
         <v>81.90666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1425094.8205</v>
+        <v>1449248.97</v>
       </c>
       <c r="G9" t="n">
         <v>81.90666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1415433.1607</v>
+        <v>1425094.8205</v>
       </c>
       <c r="G10" t="n">
-        <v>81.90333333333332</v>
+        <v>81.90666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>1439587.3102</v>
+        <v>1415433.1607</v>
       </c>
       <c r="G11" t="n">
-        <v>81.90166666666664</v>
+        <v>81.90333333333332</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1425094.8205</v>
+        <v>1439587.3102</v>
       </c>
       <c r="G12" t="n">
-        <v>81.89999999999996</v>
+        <v>81.90166666666664</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1444418.1401</v>
+        <v>1425094.8205</v>
       </c>
       <c r="G13" t="n">
         <v>81.89999999999996</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>942371.8305</v>
+        <v>1444418.1401</v>
       </c>
       <c r="G14" t="n">
         <v>81.89999999999996</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>10.2439</v>
+        <v>942371.8305</v>
       </c>
       <c r="G15" t="n">
-        <v>81.90166666666664</v>
+        <v>81.89999999999996</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="C16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="F16" t="n">
-        <v>11678.4614</v>
+        <v>10.2439</v>
       </c>
       <c r="G16" t="n">
         <v>81.90166666666664</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>11.156</v>
+        <v>11678.4614</v>
       </c>
       <c r="G17" t="n">
         <v>81.90166666666664</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>3982.9234</v>
+        <v>11.156</v>
       </c>
       <c r="G18" t="n">
         <v>81.90166666666664</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>81</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>1723.2385</v>
+        <v>3982.9234</v>
       </c>
       <c r="G19" t="n">
-        <v>81.88666666666664</v>
+        <v>81.90166666666664</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C20" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D20" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="F20" t="n">
-        <v>581.9747</v>
+        <v>1723.2385</v>
       </c>
       <c r="G20" t="n">
-        <v>81.86999999999998</v>
+        <v>81.88666666666664</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>80.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>219.7125</v>
+        <v>581.9747</v>
       </c>
       <c r="G21" t="n">
-        <v>81.85333333333331</v>
+        <v>81.86999999999998</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1260.8119</v>
+        <v>219.7125</v>
       </c>
       <c r="G22" t="n">
-        <v>81.83833333333332</v>
+        <v>81.85333333333331</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>81</v>
@@ -963,15 +1031,18 @@
         <v>81</v>
       </c>
       <c r="E23" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>5482.3987</v>
+        <v>1260.8119</v>
       </c>
       <c r="G23" t="n">
-        <v>81.82333333333332</v>
+        <v>81.83833333333332</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="F24" t="n">
-        <v>1698.3296</v>
+        <v>5482.3987</v>
       </c>
       <c r="G24" t="n">
-        <v>81.80666666666666</v>
+        <v>81.82333333333332</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>80.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>5809.0526</v>
+        <v>1698.3296</v>
       </c>
       <c r="G25" t="n">
-        <v>81.78999999999999</v>
+        <v>81.80666666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>80.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>448.380716934487</v>
+        <v>5809.0526</v>
       </c>
       <c r="G26" t="n">
-        <v>81.77333333333333</v>
+        <v>81.78999999999999</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>80.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>80.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>80.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>80.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>9874.055</v>
+        <v>448.380716934487</v>
       </c>
       <c r="G27" t="n">
-        <v>81.75</v>
+        <v>81.77333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="C28" t="n">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="D28" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="F28" t="n">
-        <v>4462.1688</v>
+        <v>9874.055</v>
       </c>
       <c r="G28" t="n">
-        <v>81.71833333333333</v>
+        <v>81.75</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>81</v>
+        <v>80.3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.8</v>
+        <v>80</v>
       </c>
       <c r="D29" t="n">
-        <v>81.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="E29" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" t="n">
-        <v>5493.6977</v>
+        <v>4462.1688</v>
       </c>
       <c r="G29" t="n">
-        <v>81.71666666666668</v>
+        <v>81.71833333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="C30" t="n">
         <v>81.8</v>
       </c>
       <c r="D30" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="F30" t="n">
-        <v>43.2885</v>
+        <v>5493.6977</v>
       </c>
       <c r="G30" t="n">
-        <v>81.71500000000002</v>
+        <v>81.71666666666668</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>81.8</v>
       </c>
       <c r="F31" t="n">
-        <v>61.1246</v>
+        <v>43.2885</v>
       </c>
       <c r="G31" t="n">
-        <v>81.71333333333337</v>
+        <v>81.71500000000002</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>80.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="C32" t="n">
-        <v>80.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="D32" t="n">
-        <v>80.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="E32" t="n">
-        <v>80.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="F32" t="n">
-        <v>447.2598</v>
+        <v>61.1246</v>
       </c>
       <c r="G32" t="n">
-        <v>81.68333333333338</v>
+        <v>81.71333333333337</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>81.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>81.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>81.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>81.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>447</v>
+        <v>447.2598</v>
       </c>
       <c r="G33" t="n">
-        <v>81.67666666666672</v>
+        <v>81.68333333333338</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="C34" t="n">
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="D34" t="n">
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="E34" t="n">
-        <v>80.2</v>
+        <v>81.5</v>
       </c>
       <c r="F34" t="n">
-        <v>104.152</v>
+        <v>447</v>
       </c>
       <c r="G34" t="n">
-        <v>81.64833333333338</v>
+        <v>81.67666666666672</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="C35" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="D35" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="E35" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="F35" t="n">
-        <v>897.523</v>
+        <v>104.152</v>
       </c>
       <c r="G35" t="n">
-        <v>81.6183333333334</v>
+        <v>81.64833333333338</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="C36" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="C36" t="n">
-        <v>80</v>
-      </c>
       <c r="D36" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="E36" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="E36" t="n">
-        <v>80</v>
-      </c>
       <c r="F36" t="n">
-        <v>1437.2359</v>
+        <v>897.523</v>
       </c>
       <c r="G36" t="n">
-        <v>81.58666666666674</v>
+        <v>81.6183333333334</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="C37" t="n">
         <v>80</v>
       </c>
-      <c r="C37" t="n">
-        <v>79.3</v>
-      </c>
       <c r="D37" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="E37" t="n">
         <v>80</v>
       </c>
-      <c r="E37" t="n">
-        <v>79.3</v>
-      </c>
       <c r="F37" t="n">
-        <v>17258.2858</v>
+        <v>1437.2359</v>
       </c>
       <c r="G37" t="n">
-        <v>81.54333333333342</v>
+        <v>81.58666666666674</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="C38" t="n">
-        <v>81.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="D38" t="n">
-        <v>81.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="E38" t="n">
-        <v>81.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="F38" t="n">
-        <v>13.0429</v>
+        <v>17258.2858</v>
       </c>
       <c r="G38" t="n">
-        <v>81.53500000000008</v>
+        <v>81.54333333333342</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>81.40000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>22.9729</v>
+        <v>13.0429</v>
       </c>
       <c r="G39" t="n">
-        <v>81.52666666666674</v>
+        <v>81.53500000000008</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>81.40000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>22.9606</v>
+        <v>22.9729</v>
       </c>
       <c r="G40" t="n">
-        <v>81.51833333333342</v>
+        <v>81.52666666666674</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>79.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>79.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>79.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>79.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>45.8187</v>
+        <v>22.9606</v>
       </c>
       <c r="G41" t="n">
-        <v>81.47833333333342</v>
+        <v>81.51833333333342</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="C42" t="n">
         <v>79.5</v>
       </c>
       <c r="D42" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="E42" t="n">
-        <v>78.7</v>
+        <v>79.5</v>
       </c>
       <c r="F42" t="n">
-        <v>8378.296</v>
+        <v>45.8187</v>
       </c>
       <c r="G42" t="n">
-        <v>81.43833333333343</v>
+        <v>81.47833333333342</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>80.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>81</v>
+        <v>79.5</v>
       </c>
       <c r="D43" t="n">
-        <v>81.09999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="E43" t="n">
-        <v>80.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="F43" t="n">
-        <v>4700.7022</v>
+        <v>8378.296</v>
       </c>
       <c r="G43" t="n">
-        <v>81.42333333333343</v>
+        <v>81.43833333333343</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>81.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="D44" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>81.09999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>4.4397</v>
+        <v>4700.7022</v>
       </c>
       <c r="G44" t="n">
-        <v>81.41000000000011</v>
+        <v>81.42333333333343</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>17.0515</v>
+        <v>4.4397</v>
       </c>
       <c r="G45" t="n">
-        <v>81.40166666666678</v>
+        <v>81.41000000000011</v>
       </c>
       <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>81.40000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>782.6315</v>
+        <v>17.0515</v>
       </c>
       <c r="G46" t="n">
-        <v>81.39333333333344</v>
+        <v>81.40166666666678</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>12.555</v>
+        <v>782.6315</v>
       </c>
       <c r="G47" t="n">
-        <v>81.39166666666679</v>
+        <v>81.39333333333344</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="C48" t="n">
-        <v>81.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="D48" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="E48" t="n">
-        <v>81.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="F48" t="n">
-        <v>921.0189</v>
+        <v>12.555</v>
       </c>
       <c r="G48" t="n">
-        <v>81.38333333333345</v>
+        <v>81.39166666666679</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="C49" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="E49" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>1753</v>
+        <v>921.0189</v>
       </c>
       <c r="G49" t="n">
-        <v>81.37500000000013</v>
+        <v>81.38333333333345</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>81.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D50" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>2242.2476</v>
+        <v>1753</v>
       </c>
       <c r="G50" t="n">
-        <v>81.36166666666681</v>
+        <v>81.37500000000013</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>80.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>80.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>2242.2476</v>
       </c>
       <c r="G51" t="n">
-        <v>81.34333333333348</v>
+        <v>81.36166666666681</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="C52" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="D52" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="E52" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="F52" t="n">
-        <v>12.7244</v>
+        <v>50</v>
       </c>
       <c r="G52" t="n">
-        <v>81.33333333333348</v>
+        <v>81.34333333333348</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1740,18 +1898,21 @@
         <v>81.3</v>
       </c>
       <c r="D53" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="E53" t="n">
         <v>81.3</v>
       </c>
       <c r="F53" t="n">
-        <v>8456.987499999999</v>
+        <v>12.7244</v>
       </c>
       <c r="G53" t="n">
-        <v>81.32333333333349</v>
+        <v>81.33333333333348</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="C54" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="D54" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="F54" t="n">
-        <v>19.0429</v>
+        <v>8456.987499999999</v>
       </c>
       <c r="G54" t="n">
-        <v>81.31666666666683</v>
+        <v>81.32333333333349</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="C55" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="D55" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="E55" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="F55" t="n">
-        <v>1821</v>
+        <v>19.0429</v>
       </c>
       <c r="G55" t="n">
-        <v>81.30666666666684</v>
+        <v>81.31666666666683</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1818,18 +1985,21 @@
         <v>81.3</v>
       </c>
       <c r="D56" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>81.3</v>
       </c>
       <c r="F56" t="n">
-        <v>1689</v>
+        <v>1821</v>
       </c>
       <c r="G56" t="n">
-        <v>81.29666666666685</v>
+        <v>81.30666666666684</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="C57" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="D57" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="E57" t="n">
-        <v>81</v>
+        <v>81.3</v>
       </c>
       <c r="F57" t="n">
-        <v>18353.301</v>
+        <v>1689</v>
       </c>
       <c r="G57" t="n">
-        <v>81.28166666666685</v>
+        <v>81.29666666666685</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="C58" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="D58" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="E58" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="F58" t="n">
-        <v>16.1963</v>
+        <v>18353.301</v>
       </c>
       <c r="G58" t="n">
-        <v>81.27500000000019</v>
+        <v>81.28166666666685</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>81.5</v>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>16.1963</v>
       </c>
       <c r="G59" t="n">
-        <v>81.26833333333353</v>
+        <v>81.27500000000019</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>81.5</v>
       </c>
       <c r="F60" t="n">
-        <v>195.869</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="n">
-        <v>81.26166666666687</v>
+        <v>81.26833333333353</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="C61" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="D61" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="E61" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1804.1965</v>
+        <v>195.869</v>
       </c>
       <c r="G61" t="n">
-        <v>81.25666666666689</v>
+        <v>81.26166666666687</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>1804.1965</v>
       </c>
       <c r="G62" t="n">
         <v>81.25666666666689</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>1249.7802</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
         <v>81.25666666666689</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>787.1559999999999</v>
+        <v>1249.7802</v>
       </c>
       <c r="G64" t="n">
         <v>81.25666666666689</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>787.1559999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>81.25833333333357</v>
+        <v>81.25666666666689</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>82</v>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>81.26000000000023</v>
+        <v>81.25833333333357</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="C67" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="D67" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="E67" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="F67" t="n">
-        <v>708</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>81.26666666666691</v>
+        <v>81.26000000000023</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2139,9 +2342,12 @@
         <v>708</v>
       </c>
       <c r="G68" t="n">
-        <v>81.27333333333358</v>
+        <v>81.26666666666691</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C69" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D69" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="E69" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="F69" t="n">
-        <v>1346.7484</v>
+        <v>708</v>
       </c>
       <c r="G69" t="n">
-        <v>81.28166666666692</v>
+        <v>81.27333333333358</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>82.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>5269.5648</v>
+        <v>1346.7484</v>
       </c>
       <c r="G70" t="n">
-        <v>81.29000000000025</v>
+        <v>81.28166666666692</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>82.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>3228.796</v>
+        <v>5269.5648</v>
       </c>
       <c r="G71" t="n">
-        <v>81.29833333333359</v>
+        <v>81.29000000000025</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>82.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E72" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>10515.1578</v>
+        <v>3228.796</v>
       </c>
       <c r="G72" t="n">
-        <v>81.30833333333359</v>
+        <v>81.29833333333359</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>83.3</v>
+        <v>82.5</v>
       </c>
       <c r="D73" t="n">
-        <v>83.5</v>
+        <v>82.5</v>
       </c>
       <c r="E73" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>11889.2487</v>
+        <v>10515.1578</v>
       </c>
       <c r="G73" t="n">
-        <v>81.33166666666693</v>
+        <v>81.30833333333359</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="D74" t="n">
         <v>83.5</v>
       </c>
-      <c r="C74" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D74" t="n">
-        <v>84.90000000000001</v>
-      </c>
       <c r="E74" t="n">
-        <v>83.5</v>
+        <v>82.8</v>
       </c>
       <c r="F74" t="n">
-        <v>9314.753699999999</v>
+        <v>11889.2487</v>
       </c>
       <c r="G74" t="n">
-        <v>81.38166666666693</v>
+        <v>81.33166666666693</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>84.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="C75" t="n">
         <v>84.90000000000001</v>
@@ -2315,15 +2539,18 @@
         <v>84.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>84.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F75" t="n">
-        <v>176.4502</v>
+        <v>9314.753699999999</v>
       </c>
       <c r="G75" t="n">
-        <v>81.43000000000026</v>
+        <v>81.38166666666693</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>84.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>84.90000000000001</v>
@@ -2341,15 +2568,18 @@
         <v>84.90000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>84.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>1840.3384</v>
+        <v>176.4502</v>
       </c>
       <c r="G76" t="n">
-        <v>81.48000000000026</v>
+        <v>81.43000000000026</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>84.90000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E77" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>121.512</v>
+        <v>1840.3384</v>
       </c>
       <c r="G77" t="n">
-        <v>81.53166666666694</v>
+        <v>81.48000000000026</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>7660.0352</v>
+        <v>121.512</v>
       </c>
       <c r="G78" t="n">
-        <v>81.58333333333361</v>
+        <v>81.53166666666694</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>85</v>
@@ -2419,16 +2655,19 @@
         <v>85</v>
       </c>
       <c r="E79" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>880.1351</v>
+        <v>7660.0352</v>
       </c>
       <c r="G79" t="n">
-        <v>81.65000000000028</v>
+        <v>81.58333333333361</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2448,13 +2687,16 @@
         <v>85</v>
       </c>
       <c r="F80" t="n">
-        <v>600</v>
+        <v>880.1351</v>
       </c>
       <c r="G80" t="n">
-        <v>81.71833333333362</v>
+        <v>81.65000000000028</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2462,25 +2704,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>85.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="C81" t="n">
-        <v>85.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="D81" t="n">
-        <v>85.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="E81" t="n">
-        <v>85.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="F81" t="n">
-        <v>16.7388</v>
+        <v>600</v>
       </c>
       <c r="G81" t="n">
-        <v>81.79333333333361</v>
+        <v>81.71833333333362</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2500,13 +2745,16 @@
         <v>85.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>100.7611</v>
+        <v>16.7388</v>
       </c>
       <c r="G82" t="n">
-        <v>81.86666666666694</v>
+        <v>81.79333333333361</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2517,22 +2765,25 @@
         <v>85.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E83" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>544</v>
+        <v>100.7611</v>
       </c>
       <c r="G83" t="n">
-        <v>81.94166666666693</v>
+        <v>81.86666666666694</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>85.5</v>
@@ -2549,16 +2800,19 @@
         <v>85.5</v>
       </c>
       <c r="E84" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>4990.2597</v>
+        <v>544</v>
       </c>
       <c r="G84" t="n">
-        <v>82.01833333333362</v>
+        <v>81.94166666666693</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2566,25 +2820,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="C85" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="D85" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="E85" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>4990.2597</v>
       </c>
       <c r="G85" t="n">
-        <v>82.10166666666694</v>
+        <v>82.01833333333362</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2604,13 +2861,16 @@
         <v>85.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>11.64144353899884</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>82.18500000000027</v>
+        <v>82.10166666666694</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2621,22 +2881,25 @@
         <v>85.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E87" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>29210.2444</v>
+        <v>11.64144353899884</v>
       </c>
       <c r="G87" t="n">
-        <v>82.27666666666694</v>
+        <v>82.18500000000027</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2647,22 +2910,25 @@
         <v>85.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>83.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="D88" t="n">
+        <v>86</v>
+      </c>
+      <c r="E88" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="E88" t="n">
-        <v>83.59999999999999</v>
-      </c>
       <c r="F88" t="n">
-        <v>9413.382600000001</v>
+        <v>29210.2444</v>
       </c>
       <c r="G88" t="n">
-        <v>82.33666666666696</v>
+        <v>82.27666666666694</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2673,21 +2939,24 @@
         <v>85.90000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>85.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D89" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>85.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>9413.382600000001</v>
       </c>
       <c r="G89" t="n">
-        <v>82.40166666666694</v>
+        <v>82.33666666666696</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>85.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="D90" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="F90" t="n">
-        <v>10.9856</v>
+        <v>300</v>
       </c>
       <c r="G90" t="n">
-        <v>82.47000000000027</v>
+        <v>82.40166666666694</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>85.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>144.0144</v>
+        <v>10.9856</v>
       </c>
       <c r="G91" t="n">
-        <v>82.5383333333336</v>
+        <v>82.47000000000027</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>210.1234</v>
+        <v>144.0144</v>
       </c>
       <c r="G92" t="n">
-        <v>82.63666666666693</v>
+        <v>82.5383333333336</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>86</v>
       </c>
       <c r="C93" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="D93" t="n">
         <v>86</v>
       </c>
       <c r="E93" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="F93" t="n">
-        <v>80.6768</v>
+        <v>210.1234</v>
       </c>
       <c r="G93" t="n">
-        <v>82.71000000000025</v>
+        <v>82.63666666666693</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>86</v>
+      </c>
+      <c r="C94" t="n">
         <v>85.90000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>86</v>
       </c>
       <c r="D94" t="n">
         <v>86</v>
       </c>
       <c r="E94" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>737.225</v>
+        <v>80.6768</v>
       </c>
       <c r="G94" t="n">
-        <v>82.80666666666691</v>
+        <v>82.71000000000025</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C95" t="n">
         <v>86</v>
       </c>
-      <c r="C95" t="n">
-        <v>86.3</v>
-      </c>
       <c r="D95" t="n">
-        <v>86.3</v>
+        <v>86</v>
       </c>
       <c r="E95" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="F95" t="n">
-        <v>1333</v>
+        <v>737.225</v>
       </c>
       <c r="G95" t="n">
-        <v>82.91000000000025</v>
+        <v>82.80666666666691</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="C96" t="n">
-        <v>87.5</v>
+        <v>86.3</v>
       </c>
       <c r="D96" t="n">
-        <v>87.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="E96" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="F96" t="n">
-        <v>39821.4396</v>
+        <v>1333</v>
       </c>
       <c r="G96" t="n">
-        <v>83.03500000000025</v>
+        <v>82.91000000000025</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>87.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>87.5</v>
       </c>
       <c r="D97" t="n">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>87.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>26.9658</v>
+        <v>39821.4396</v>
       </c>
       <c r="G97" t="n">
-        <v>83.17166666666691</v>
+        <v>83.03500000000025</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="C98" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="D98" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="E98" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="F98" t="n">
-        <v>2000.9464</v>
+        <v>26.9658</v>
       </c>
       <c r="G98" t="n">
-        <v>83.27666666666691</v>
+        <v>83.17166666666691</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>87.90000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="C99" t="n">
-        <v>88</v>
+        <v>87.7</v>
       </c>
       <c r="D99" t="n">
-        <v>88</v>
+        <v>87.7</v>
       </c>
       <c r="E99" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="F99" t="n">
-        <v>4489.8896</v>
+        <v>2000.9464</v>
       </c>
       <c r="G99" t="n">
-        <v>83.38666666666693</v>
+        <v>83.27666666666691</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +3255,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>88</v>
@@ -2965,15 +3264,18 @@
         <v>88</v>
       </c>
       <c r="E100" t="n">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="F100" t="n">
-        <v>7182.3317</v>
+        <v>4489.8896</v>
       </c>
       <c r="G100" t="n">
-        <v>83.49666666666693</v>
+        <v>83.38666666666693</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>88</v>
       </c>
       <c r="C101" t="n">
-        <v>88.2</v>
+        <v>88</v>
       </c>
       <c r="D101" t="n">
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="E101" t="n">
         <v>88</v>
       </c>
       <c r="F101" t="n">
-        <v>2931.867414142539</v>
+        <v>7182.3317</v>
       </c>
       <c r="G101" t="n">
-        <v>83.64166666666692</v>
+        <v>83.49666666666693</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>88.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="C102" t="n">
-        <v>89.59999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="D102" t="n">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="E102" t="n">
         <v>88</v>
       </c>
       <c r="F102" t="n">
-        <v>3987.6044</v>
+        <v>2931.867414142539</v>
       </c>
       <c r="G102" t="n">
-        <v>83.81000000000026</v>
+        <v>83.64166666666692</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>89.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>89.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>89.5</v>
+        <v>89.7</v>
       </c>
       <c r="E103" t="n">
-        <v>89.3</v>
+        <v>88</v>
       </c>
       <c r="F103" t="n">
-        <v>5556.0859</v>
+        <v>3987.6044</v>
       </c>
       <c r="G103" t="n">
-        <v>83.95166666666692</v>
+        <v>83.81000000000026</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>89.5</v>
       </c>
       <c r="C104" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="D104" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E104" t="n">
-        <v>89.5</v>
+        <v>89.3</v>
       </c>
       <c r="F104" t="n">
-        <v>9321.741714492753</v>
+        <v>5556.0859</v>
       </c>
       <c r="G104" t="n">
-        <v>84.09500000000025</v>
+        <v>83.95166666666692</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,7 +3400,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="C105" t="n">
         <v>89.7</v>
@@ -3095,15 +3409,18 @@
         <v>89.7</v>
       </c>
       <c r="E105" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="F105" t="n">
-        <v>447.617</v>
+        <v>9321.741714492753</v>
       </c>
       <c r="G105" t="n">
-        <v>84.23333333333359</v>
+        <v>84.09500000000025</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,532 +3441,15 @@
         <v>89.7</v>
       </c>
       <c r="F106" t="n">
-        <v>254.2645</v>
+        <v>447.617</v>
       </c>
       <c r="G106" t="n">
-        <v>84.37166666666693</v>
+        <v>84.23333333333359</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C107" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="D107" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="E107" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3225.838485507246</v>
-      </c>
-      <c r="G107" t="n">
-        <v>84.50500000000027</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="C108" t="n">
-        <v>90</v>
-      </c>
-      <c r="D108" t="n">
-        <v>90</v>
-      </c>
-      <c r="E108" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F108" t="n">
-        <v>32532.52978585746</v>
-      </c>
-      <c r="G108" t="n">
-        <v>84.6483333333336</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C109" t="n">
-        <v>90</v>
-      </c>
-      <c r="D109" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>90</v>
-      </c>
-      <c r="F109" t="n">
-        <v>40162.498</v>
-      </c>
-      <c r="G109" t="n">
-        <v>84.79166666666694</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>90</v>
-      </c>
-      <c r="C110" t="n">
-        <v>90</v>
-      </c>
-      <c r="D110" t="n">
-        <v>90</v>
-      </c>
-      <c r="E110" t="n">
-        <v>90</v>
-      </c>
-      <c r="F110" t="n">
-        <v>15781.8562</v>
-      </c>
-      <c r="G110" t="n">
-        <v>84.94000000000027</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="C111" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="D111" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="E111" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F111" t="n">
-        <v>8733.8485</v>
-      </c>
-      <c r="G111" t="n">
-        <v>85.10333333333361</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C112" t="n">
-        <v>93</v>
-      </c>
-      <c r="D112" t="n">
-        <v>93</v>
-      </c>
-      <c r="E112" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F112" t="n">
-        <v>17930.8722</v>
-      </c>
-      <c r="G112" t="n">
-        <v>85.2983333333336</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C113" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D113" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E113" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F113" t="n">
-        <v>37356.0537</v>
-      </c>
-      <c r="G113" t="n">
-        <v>85.5083333333336</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="C114" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="E114" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="F114" t="n">
-        <v>83.23999999999999</v>
-      </c>
-      <c r="G114" t="n">
-        <v>85.69833333333358</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="C115" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="D115" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="E115" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F115" t="n">
-        <v>11225.44362135922</v>
-      </c>
-      <c r="G115" t="n">
-        <v>85.88666666666693</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>86.09000000000024</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>104.5026</v>
-      </c>
-      <c r="G117" t="n">
-        <v>86.29833333333359</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>42043.5392</v>
-      </c>
-      <c r="G118" t="n">
-        <v>86.49833333333359</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E119" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="F119" t="n">
-        <v>6954.0137</v>
-      </c>
-      <c r="G119" t="n">
-        <v>86.69333333333358</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="D120" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="E120" t="n">
-        <v>92</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3973.3978</v>
-      </c>
-      <c r="G120" t="n">
-        <v>86.89000000000026</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="C121" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>282.0085</v>
-      </c>
-      <c r="G121" t="n">
-        <v>87.08333333333357</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>93</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2309.1132</v>
-      </c>
-      <c r="G122" t="n">
-        <v>87.27333333333358</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>43.9658</v>
-      </c>
-      <c r="G123" t="n">
-        <v>87.46333333333359</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="D124" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="E124" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>432</v>
-      </c>
-      <c r="G124" t="n">
-        <v>87.65333333333361</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>92</v>
-      </c>
-      <c r="F125" t="n">
-        <v>37086.6578</v>
-      </c>
-      <c r="G125" t="n">
-        <v>87.82666666666692</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>94</v>
-      </c>
-      <c r="C126" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>95.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="F126" t="n">
-        <v>29525.737</v>
-      </c>
-      <c r="G126" t="n">
-        <v>88.03166666666694</v>
-      </c>
-      <c r="H126" t="n">
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
